--- a/data/trans_orig/P70A_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>17771</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11277</v>
+        <v>11466</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24391</v>
+        <v>24086</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5303401507751256</v>
+        <v>0.5303401507751258</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3365378910965593</v>
+        <v>0.3421740253863068</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7278909700275693</v>
+        <v>0.7187992466693268</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -762,19 +762,19 @@
         <v>28306</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21754</v>
+        <v>22461</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34132</v>
+        <v>33570</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6046171990523042</v>
+        <v>0.6046171990523044</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4646698179521785</v>
+        <v>0.479764201396936</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.729049616706668</v>
+        <v>0.7170557447475658</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -783,19 +783,19 @@
         <v>46077</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37064</v>
+        <v>37916</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53522</v>
+        <v>55361</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5736316358121161</v>
+        <v>0.5736316358121158</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4614312417371014</v>
+        <v>0.4720372063586558</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6663132656008756</v>
+        <v>0.689217486984658</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>7467</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3010</v>
+        <v>3130</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13716</v>
+        <v>14145</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.222844660708668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08981511041005077</v>
+        <v>0.09339850900289047</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4093312677023028</v>
+        <v>0.4221197033154683</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -833,19 +833,19 @@
         <v>7232</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3660</v>
+        <v>3427</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13325</v>
+        <v>12617</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1544756235227158</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0781684091740862</v>
+        <v>0.07319114867367803</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2846235170576163</v>
+        <v>0.2695055773358861</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -854,19 +854,19 @@
         <v>14699</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8924</v>
+        <v>8945</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22190</v>
+        <v>22858</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1829965889424873</v>
+        <v>0.1829965889424872</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1110996108504905</v>
+        <v>0.1113591365585555</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2762499393123874</v>
+        <v>0.2845738892485809</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>8271</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3370</v>
+        <v>3717</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14518</v>
+        <v>14804</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2468151885162062</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1005816782533731</v>
+        <v>0.1109269782053445</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4332679850982317</v>
+        <v>0.4417950692466246</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -904,19 +904,19 @@
         <v>11279</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6488</v>
+        <v>6563</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16168</v>
+        <v>16311</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2409071774249798</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.138583921042973</v>
+        <v>0.1401942584597436</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3453393477805399</v>
+        <v>0.3484003587174914</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -925,19 +925,19 @@
         <v>19549</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12919</v>
+        <v>12754</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27117</v>
+        <v>28544</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2433717752453966</v>
+        <v>0.2433717752453965</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1608345880565764</v>
+        <v>0.1587783377064674</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3375954896634782</v>
+        <v>0.3553550714887906</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>77688</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>66304</v>
+        <v>65285</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>87475</v>
+        <v>86902</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7072505884562252</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.60361144545124</v>
+        <v>0.5943418633603104</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7963487225549296</v>
+        <v>0.7911361787302241</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>85</v>
@@ -1050,19 +1050,19 @@
         <v>71772</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>62658</v>
+        <v>62762</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>79367</v>
+        <v>79448</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7163415412942536</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6253697245497576</v>
+        <v>0.6264078044713947</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7921372883221539</v>
+        <v>0.7929472684635631</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>148</v>
@@ -1071,19 +1071,19 @@
         <v>149460</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>136112</v>
+        <v>135480</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>162403</v>
+        <v>162164</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7115871925760446</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6480353731237412</v>
+        <v>0.6450273423744727</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7732089514349909</v>
+        <v>0.7720715039532172</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>15620</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8654</v>
+        <v>8720</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25644</v>
+        <v>24679</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1422034592369407</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0787810987473276</v>
+        <v>0.07938778267421895</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2334595117411878</v>
+        <v>0.2246726322258362</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -1121,19 +1121,19 @@
         <v>13591</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8395</v>
+        <v>8449</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19824</v>
+        <v>19988</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1356489415663188</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08378553314648564</v>
+        <v>0.08432531919478949</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1978578624965086</v>
+        <v>0.1994953501714633</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>34</v>
@@ -1142,19 +1142,19 @@
         <v>29211</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>21120</v>
+        <v>20780</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>41551</v>
+        <v>40716</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1390767959662936</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1005531926757585</v>
+        <v>0.0989346804665992</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1978255716911362</v>
+        <v>0.1938503097451515</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>16537</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9695</v>
+        <v>10223</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25522</v>
+        <v>26268</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.150545952306834</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08825977066013921</v>
+        <v>0.0930666824933294</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2323461369722476</v>
+        <v>0.239134287410165</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1192,19 +1192,19 @@
         <v>14830</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8752</v>
+        <v>8809</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23649</v>
+        <v>23157</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1480095171394275</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08735077556078388</v>
+        <v>0.08792281818324342</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2360355811229481</v>
+        <v>0.2311243224322458</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1213,19 +1213,19 @@
         <v>31366</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21308</v>
+        <v>21682</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42139</v>
+        <v>42998</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1493360114576616</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1014486863727228</v>
+        <v>0.1032281428591465</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2006240714605356</v>
+        <v>0.2047155685922133</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>102710</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>90173</v>
+        <v>91545</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>111637</v>
+        <v>111738</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7550177970725618</v>
+        <v>0.7550177970725619</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6628550635211544</v>
+        <v>0.6729394920998414</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8206358227431925</v>
+        <v>0.8213808131275313</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>152</v>
@@ -1338,19 +1338,19 @@
         <v>112236</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>104771</v>
+        <v>105072</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>118505</v>
+        <v>118777</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8402004102766639</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7843214238496391</v>
+        <v>0.7865714532954611</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8871335125019792</v>
+        <v>0.8891721433513917</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>238</v>
@@ -1359,19 +1359,19 @@
         <v>214946</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>200644</v>
+        <v>201516</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>227530</v>
+        <v>227447</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7972212135285963</v>
+        <v>0.7972212135285967</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.744176816421653</v>
+        <v>0.7474095569686223</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8438962181584678</v>
+        <v>0.8435848712241456</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>13252</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7148</v>
+        <v>7366</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21314</v>
+        <v>21243</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09741541976655761</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05254314851958553</v>
+        <v>0.05414566573359407</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1566786668901435</v>
+        <v>0.1561527825243836</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1409,19 +1409,19 @@
         <v>10379</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6021</v>
+        <v>6238</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15784</v>
+        <v>16535</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07769670659517899</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04507424794778681</v>
+        <v>0.0466966823017915</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1181605358796397</v>
+        <v>0.1237820644613209</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -1430,19 +1430,19 @@
         <v>23631</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15941</v>
+        <v>15303</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34951</v>
+        <v>33087</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08764585491469286</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05912244446687395</v>
+        <v>0.05675774428334436</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1296305073198387</v>
+        <v>0.1227175066815294</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>20075</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12981</v>
+        <v>12709</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30971</v>
+        <v>30507</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1475667831608807</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09541905508924962</v>
+        <v>0.09341969907047439</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2276632662358218</v>
+        <v>0.2242536186135232</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1480,19 +1480,19 @@
         <v>10967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6872</v>
+        <v>6347</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17158</v>
+        <v>16504</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08210288312815694</v>
+        <v>0.08210288312815693</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05144663108146078</v>
+        <v>0.04751164549397265</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.128443176691152</v>
+        <v>0.1235529900949633</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -1501,19 +1501,19 @@
         <v>31042</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21473</v>
+        <v>21847</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42138</v>
+        <v>41556</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1151329315567107</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07964172296563372</v>
+        <v>0.08103040729228389</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1562856551734489</v>
+        <v>0.1541268182327947</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>117096</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>106208</v>
+        <v>105812</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>125454</v>
+        <v>126046</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8397450218328875</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7616626309352221</v>
+        <v>0.7588244325631044</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8996836222159789</v>
+        <v>0.9039331943532447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>128</v>
@@ -1626,19 +1626,19 @@
         <v>95624</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>86564</v>
+        <v>86173</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>102461</v>
+        <v>102192</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8091579486172282</v>
+        <v>0.8091579486172283</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7324917615890385</v>
+        <v>0.7291845345253098</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8670100838558327</v>
+        <v>0.8647364751699211</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>230</v>
@@ -1647,19 +1647,19 @@
         <v>212720</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>197875</v>
+        <v>198782</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>223964</v>
+        <v>223890</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8257138612066734</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7680885317638821</v>
+        <v>0.7716105792744378</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8693565937653511</v>
+        <v>0.8690702200187012</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>11105</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5601</v>
+        <v>5735</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19036</v>
+        <v>19760</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0796369350218617</v>
+        <v>0.07963693502186169</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04016901397693989</v>
+        <v>0.04112464796032324</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1365125689864909</v>
+        <v>0.1417050306298365</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1697,19 +1697,19 @@
         <v>10928</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6355</v>
+        <v>6613</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17234</v>
+        <v>17600</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09247186052268819</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05377429174389323</v>
+        <v>0.05595617739002649</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1458300153441492</v>
+        <v>0.1489255725814997</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -1718,19 +1718,19 @@
         <v>22033</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15031</v>
+        <v>14852</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32704</v>
+        <v>32870</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08552468047752658</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05834736979493765</v>
+        <v>0.05765271805080369</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1269454554896143</v>
+        <v>0.1275925999115237</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>11242</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5287</v>
+        <v>4842</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20946</v>
+        <v>21272</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08061804314525074</v>
+        <v>0.08061804314525073</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03791609618983619</v>
+        <v>0.034721006382703</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1502143759321124</v>
+        <v>0.1525541585110355</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -1768,19 +1768,19 @@
         <v>11625</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6210</v>
+        <v>6604</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19151</v>
+        <v>20085</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09837019086008357</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0525522711605904</v>
+        <v>0.05588384896486032</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1620530051200494</v>
+        <v>0.1699557023519809</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>22</v>
@@ -1789,19 +1789,19 @@
         <v>22867</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>14499</v>
+        <v>14582</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>35939</v>
+        <v>35720</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.08876145831579992</v>
+        <v>0.0887614583157999</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05627989245132346</v>
+        <v>0.05660270314129974</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.139502207399155</v>
+        <v>0.1386540254478132</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>315265</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>295187</v>
+        <v>293537</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>334812</v>
+        <v>332322</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7527231310028007</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7047851403991381</v>
+        <v>0.7008445976134287</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7993925467986598</v>
+        <v>0.7934476849447551</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>399</v>
@@ -1914,19 +1914,19 @@
         <v>307938</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>292495</v>
+        <v>293490</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>322122</v>
+        <v>322665</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7722223385278449</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7334955414036095</v>
+        <v>0.7359889487893823</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8077900373606995</v>
+        <v>0.8091522751012918</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>666</v>
@@ -1935,19 +1935,19 @@
         <v>623204</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>595829</v>
+        <v>597765</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>645512</v>
+        <v>647310</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7622334805521492</v>
+        <v>0.7622334805521493</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7287513999966468</v>
+        <v>0.731119940867754</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7895181616499141</v>
+        <v>0.791717818298272</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>47444</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>35460</v>
+        <v>34842</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>61917</v>
+        <v>63823</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1132776680918989</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0846646277941778</v>
+        <v>0.08318915564821276</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1478312434866041</v>
+        <v>0.1523831453620331</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>62</v>
@@ -1985,19 +1985,19 @@
         <v>42130</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32799</v>
+        <v>32952</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>53850</v>
+        <v>53366</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1056503390582849</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08225110090676935</v>
+        <v>0.08263438380988146</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1350407422454968</v>
+        <v>0.13382701224087</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>105</v>
@@ -2006,19 +2006,19 @@
         <v>89575</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>73982</v>
+        <v>73478</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>109110</v>
+        <v>108361</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1095575904864681</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09048680790804228</v>
+        <v>0.08987038631508486</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1334511385279143</v>
+        <v>0.1325346053219303</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>56123</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42442</v>
+        <v>41858</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72438</v>
+        <v>72641</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1339992009053005</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1013346460237441</v>
+        <v>0.09993944377395754</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1729522121525733</v>
+        <v>0.1734376533797652</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -2056,19 +2056,19 @@
         <v>48701</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37994</v>
+        <v>37919</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63277</v>
+        <v>62080</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1221273224138701</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09527706040670342</v>
+        <v>0.09508980482848622</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1586819570973826</v>
+        <v>0.155679665390387</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>113</v>
@@ -2077,19 +2077,19 @@
         <v>104824</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>86388</v>
+        <v>86914</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>127514</v>
+        <v>124965</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1282089289613826</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1056605575329929</v>
+        <v>0.1063041361487202</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1559606309187505</v>
+        <v>0.1528427160798031</v>
       </c>
     </row>
     <row r="23">
